--- a/DesignerConfigs/Datas/test/test_desc.xlsx
+++ b/DesignerConfigs/Datas/test/test_desc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A9E63-F720-45C7-896B-F70A7445CB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45AABB-7C07-48B9-A47E-973074482812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="2250" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30870" yWindow="1440" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,23 +81,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#field</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>*x2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -213,6 +196,10 @@
   </si>
   <si>
     <t>测试转义 &lt; &amp; % / # &gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -319,6 +306,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,9 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -618,7 +605,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,63 +638,63 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7"/>
       <c r="H3" t="s">
         <v>4</v>
       </c>
@@ -726,7 +713,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -737,16 +724,16 @@
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>31</v>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -757,10 +744,10 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -813,6 +800,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -820,7 +808,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/test_desc.xlsx
+++ b/DesignerConfigs/Datas/test/test_desc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45AABB-7C07-48B9-A47E-973074482812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7BC26-A640-47C7-A9DE-CBAC2CF6819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="1440" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="840" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -62,23 +62,6 @@
   </si>
   <si>
     <t>xxx</t>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*x2</t>
@@ -309,6 +292,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,12 +305,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,184 +610,184 @@
     <col min="36" max="36" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="6"/>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
